--- a/SampleData/SampleGen.Test/TestData/TestData1.xlsx
+++ b/SampleData/SampleGen.Test/TestData/TestData1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\jcoliz\Ofx\SampleData\samplegen-test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\jcoliz\Ofx\SampleData\SampleGen.Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FFED51-1382-4B16-82FC-EFE27319C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8636018-5A0B-47C5-8495-86AF0675B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="330" windowWidth="28800" windowHeight="15460" xr2:uid="{D78380F0-A539-4D8B-9BEC-B3C0621EF4A6}"/>
+    <workbookView xWindow="6130" yWindow="3350" windowWidth="28800" windowHeight="15460" xr2:uid="{D78380F0-A539-4D8B-9BEC-B3C0621EF4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Connor Construction</t>
   </si>
   <si>
-    <t>Big Plates</t>
-  </si>
-  <si>
     <t>Speedy Speed's</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Big,Bigger,Biggest</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,19 +669,19 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -726,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -857,17 +857,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
         <f>-52*3*50</f>
         <v>-7800</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1091,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
         <f>-125*4</f>
@@ -1118,7 +1118,7 @@
         <v>120000</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -1139,7 +1139,7 @@
         <v>4000</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1160,7 +1160,7 @@
         <v>-16488</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1181,7 +1181,7 @@
         <v>-7440</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1202,7 +1202,7 @@
         <v>-1752</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1223,7 +1223,7 @@
         <v>-6240</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         <v>-1152</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1265,7 +1265,7 @@
         <v>-6000</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1286,7 +1286,7 @@
         <v>-4000</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1307,7 +1307,7 @@
         <v>-19000</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1328,7 +1328,7 @@
         <v>-200</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1349,7 +1349,7 @@
         <v>-50</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
